--- a/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_pearson.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_pearson.xlsx
@@ -473,61 +473,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['POLSKA']</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[0.2575392626155706]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.10853339746416292]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.22438475936418653]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.6136893808848591]</t>
-        </is>
+          <t>PODLASKIE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.441727181201095</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8376815836102514</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03069156446790083</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.283455557649857e-07</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[0.7996768486763683]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.9578709015860607]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[2.750162046450436e-06]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[2.1033110683332397e-13]</t>
-        </is>
+          <t>MAZOWIECKIE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8813182655068492</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.8830298761999564</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.296890147383998e-08</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.114531375146491e-08</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -539,61 +523,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['LUBELSKIE']</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[-0.2321937507856675]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.9225303668843539]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.2749230678659468]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1.4479396748126862e-10]</t>
-        </is>
+          <t>LUBUSKIE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.01656487301554273</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3372349211727951</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9387637018753383</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1070650314996582</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['LUBUSKIE']</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[-0.016564873015542752]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.33723492117279513]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.9387637018753383]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.10706503149965782]</t>
-        </is>
+          <t>WARMIŃSKO-MAZURSKIE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3609859423125625</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2937286135918859</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08308794895286116</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1635872334926257</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -605,94 +573,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['ŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[0.37892001851469964]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.8953771992533357]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.06784976940413728]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[3.467014550483823e-09]</t>
-        </is>
+          <t>KUJAWSKO-POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.4627031930330073</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2613850225575609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02280158685824072</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.217296727654839</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['PODLASKIE']</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[-0.44172718120109505]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.8376815836102516]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.03069156446790083]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[3.2834555576498163e-07]</t>
-        </is>
+          <t>POLSKA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2575392626155706</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1085333974641629</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2243847593641865</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6136893808848591</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['MAZOWIECKIE']</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[0.8813182655068494]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.8830298761999565]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[1.296890147383973e-08]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[1.1145313751464695e-08]</t>
-        </is>
+          <t>OPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4300243099028041</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9205711044482582</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03595929772777953</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.888132120055662e-10</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -704,31 +648,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['ŚWIĘTOKRZYSKIE']</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[-0.5994762505486345]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.9103194073993288]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[0.0019618458637446594]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[6.835654259611829e-10]</t>
-        </is>
+          <t>ŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3789200185146997</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8953771992533355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06784976940413728</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.467014550483903e-09</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -737,127 +673,95 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['WIELKOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[-0.7400597425455405]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-0.9138782467362524]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[3.568003508317751e-05]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[4.453474350258844e-10]</t>
-        </is>
+          <t>ZACHODNIOPOMORSKIE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6653856816130056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1761990338842845</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0003880144691929585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4101738476146194</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['DOLNOŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[-0.37608872293970463]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.17079136798831046]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[0.07010142933954552]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[0.42491359168809656]</t>
-        </is>
+          <t>MAŁOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8571964726137377</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.9057738355168462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.829947326443126e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.152299466019802e-09</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['OPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[-0.43002430990280416]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[0.920571104448258]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[0.03595929772777945]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[1.8881321200557743e-10]</t>
-        </is>
+          <t>PODKARPACKIE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1408047498072609</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.1721716617978188</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5116585671256861</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4211242342269428</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['ŁÓDZKIE']</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[0.14128470712102098]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[0.9680335474272945]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[0.5102059449316739]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[1.0585075925003958e-14]</t>
-        </is>
+          <t>LUBELSKIE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2321937507856676</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9225303668843539</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2749230678659464</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.447939674812686e-10</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -869,127 +773,95 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['WARMIŃSKO-MAZURSKIE']</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[-0.36098594231256254]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[0.2937286135918858]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[0.08308794895286116]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[0.1635872334926261]</t>
-        </is>
+          <t>POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7996768486763682</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.9578709015860607</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.750162046450467e-06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.10331106833324e-13</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['ZACHODNIOPOMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[0.6653856816130055]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[0.17619903388428446]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[0.000388014469192961]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[0.41017384761461945]</t>
-        </is>
+          <t>ŁÓDZKIE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.141284707121021</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9680335474272944</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5102059449316739</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.058507592500477e-14</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['PODKARPACKIE']</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[0.14080474980726085]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[-0.17217166179781881]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[0.5116585671256861]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[0.4211242342269428]</t>
-        </is>
+          <t>WIELKOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7400597425455402</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.9138782467362522</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.568003508317813e-05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.453474350258844e-10</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['MAŁOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[-0.8571964726137377]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[-0.9057738355168463]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[8.829947326443126e-08]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[1.152299466019802e-09]</t>
-        </is>
+          <t>ŚWIĘTOKRZYSKIE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.5994762505486343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9103194073993288</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001961845863744659</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.835654259611829e-10</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1001,31 +873,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['KUJAWSKO-POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[-0.4627031930330072]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[0.2613850225575608]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[0.022801586858240717]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[0.217296727654839]</t>
-        </is>
+          <t>DOLNOŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.3760887229397046</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1707913679883104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07010142933954552</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4249135916880966</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>

--- a/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_pearson.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_pearson.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5687A752-2993-484E-B928-6617FD4D5908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Administrative_Unit</t>
+  </si>
+  <si>
+    <t>Correlation_1_3</t>
+  </si>
+  <si>
+    <t>Correlation_2_3</t>
+  </si>
+  <si>
+    <t>P-Value_1_3</t>
+  </si>
+  <si>
+    <t>P-Value_2_3</t>
+  </si>
+  <si>
+    <t>Significance_1_3</t>
+  </si>
+  <si>
+    <t>Significance_2_3</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>POLSKA</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,73 +453,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Administrative_Unit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_1_3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_2_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_1_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_2_3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_1_3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_2_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PODLASKIE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>-0.441727181201095</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.8376815836102514</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03069156446790083</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.283455557649857e-07</v>
+      <c r="C2">
+        <v>0.83768158361025136</v>
+      </c>
+      <c r="D2">
+        <v>3.069156446790083E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.283455557649857E-7</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -495,23 +514,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAZOWIECKIE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8813182655068492</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.8830298761999564</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.296890147383998e-08</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.114531375146491e-08</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.88131826550684922</v>
+      </c>
+      <c r="C3">
+        <v>-0.88302987619995643</v>
+      </c>
+      <c r="D3">
+        <v>1.296890147383998E-8</v>
+      </c>
+      <c r="E3">
+        <v>1.114531375146491E-8</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -520,23 +537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LUBUSKIE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.01656487301554273</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3372349211727951</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9387637018753383</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1070650314996582</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>-1.6564873015542731E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.33723492117279508</v>
+      </c>
+      <c r="D4">
+        <v>0.93876370187533831</v>
+      </c>
+      <c r="E4">
+        <v>0.10706503149965819</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -545,23 +560,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WARMIŃSKO-MAZURSKIE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.3609859423125625</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-0.36098594231256248</v>
+      </c>
+      <c r="C5">
         <v>0.2937286135918859</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.08308794895286116</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1635872334926257</v>
+      <c r="D5">
+        <v>8.308794895286116E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.16358723349262569</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -570,23 +583,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KUJAWSKO-POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.4627031930330073</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2613850225575609</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02280158685824072</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.217296727654839</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-0.46270319303300728</v>
+      </c>
+      <c r="C6">
+        <v>0.26138502255756091</v>
+      </c>
+      <c r="D6">
+        <v>2.280158685824072E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.21729672765483901</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -595,23 +606,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POLSKA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2575392626155706</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1085333974641629</v>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.25753926261557059</v>
+      </c>
+      <c r="C7">
+        <v>0.10853339746416291</v>
+      </c>
+      <c r="D7">
         <v>0.2243847593641865</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.6136893808848591</v>
+      <c r="E7">
+        <v>0.61368938088485914</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -620,23 +629,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>-0.4300243099028041</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.9205711044482582</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03595929772777953</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.888132120055662e-10</v>
+      <c r="C8">
+        <v>0.92057110444825818</v>
+      </c>
+      <c r="D8">
+        <v>3.5959297727779532E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.8881321200556621E-10</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -645,23 +652,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>0.3789200185146997</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.8953771992533355</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.06784976940413728</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.467014550483903e-09</v>
+      <c r="C9">
+        <v>0.89537719925333548</v>
+      </c>
+      <c r="D9">
+        <v>6.7849769404137283E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.4670145504839029E-9</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -670,23 +675,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZACHODNIOPOMORSKIE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>0.6653856816130056</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.1761990338842845</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0003880144691929585</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4101738476146194</v>
+      <c r="C10">
+        <v>0.17619903388428451</v>
+      </c>
+      <c r="D10">
+        <v>3.8801446919295852E-4</v>
+      </c>
+      <c r="E10">
+        <v>0.41017384761461939</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -695,23 +698,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MAŁOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.8571964726137377</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-0.85719647261373766</v>
+      </c>
+      <c r="C11">
         <v>-0.9057738355168462</v>
       </c>
-      <c r="D11" t="n">
-        <v>8.829947326443126e-08</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.152299466019802e-09</v>
+      <c r="D11">
+        <v>8.8299473264431256E-8</v>
+      </c>
+      <c r="E11">
+        <v>1.1522994660198021E-9</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -720,23 +721,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PODKARPACKIE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>0.1408047498072609</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.1721716617978188</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5116585671256861</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.4211242342269428</v>
+      <c r="C12">
+        <v>-0.17217166179781879</v>
+      </c>
+      <c r="D12">
+        <v>0.51165856712568614</v>
+      </c>
+      <c r="E12">
+        <v>0.42112423422694278</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -745,23 +744,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LUBELSKIE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.2321937507856676</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9225303668843539</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2749230678659464</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.447939674812686e-10</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>-0.23219375078566759</v>
+      </c>
+      <c r="C13">
+        <v>0.92253036688435386</v>
+      </c>
+      <c r="D13">
+        <v>0.27492306786594639</v>
+      </c>
+      <c r="E13">
+        <v>1.4479396748126859E-10</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -770,23 +767,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7996768486763682</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.79967684867636823</v>
+      </c>
+      <c r="C14">
         <v>-0.9578709015860607</v>
       </c>
-      <c r="D14" t="n">
-        <v>2.750162046450467e-06</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.10331106833324e-13</v>
+      <c r="D14">
+        <v>2.7501620464504671E-6</v>
+      </c>
+      <c r="E14">
+        <v>2.10331106833324E-13</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -795,23 +790,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ŁÓDZKIE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.141284707121021</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9680335474272944</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5102059449316739</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.058507592500477e-14</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.14128470712102101</v>
+      </c>
+      <c r="C15">
+        <v>0.96803354742729442</v>
+      </c>
+      <c r="D15">
+        <v>0.51020594493167393</v>
+      </c>
+      <c r="E15">
+        <v>1.0585075925004771E-14</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -820,23 +813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.7400597425455402</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.9138782467362522</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.568003508317813e-05</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.453474350258844e-10</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>-0.74005974254554019</v>
+      </c>
+      <c r="C16">
+        <v>-0.91387824673625218</v>
+      </c>
+      <c r="D16">
+        <v>3.5680035083178127E-5</v>
+      </c>
+      <c r="E16">
+        <v>4.4534743502588441E-10</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -845,23 +836,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ŚWIĘTOKRZYSKIE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.5994762505486343</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9103194073993288</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001961845863744659</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.835654259611829e-10</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>-0.59947625054863429</v>
+      </c>
+      <c r="C17">
+        <v>0.91031940739932882</v>
+      </c>
+      <c r="D17">
+        <v>1.961845863744659E-3</v>
+      </c>
+      <c r="E17">
+        <v>6.8356542596118288E-10</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -870,23 +859,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DOLNOŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.3760887229397046</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1707913679883104</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.07010142933954552</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.4249135916880966</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>-0.37608872293970458</v>
+      </c>
+      <c r="C18">
+        <v>0.17079136798831041</v>
+      </c>
+      <c r="D18">
+        <v>7.0101429339545523E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.42491359168809661</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
